--- a/tests/issues.xlsx
+++ b/tests/issues.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11820" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11820"/>
   </bookViews>
   <sheets>
-    <sheet name="issue2" sheetId="1" r:id="rId1"/>
-    <sheet name="issue5" sheetId="2" r:id="rId2"/>
-    <sheet name="issue6" sheetId="3" r:id="rId3"/>
+    <sheet name="datatypes" sheetId="4" r:id="rId1"/>
+    <sheet name="issue2" sheetId="1" r:id="rId2"/>
+    <sheet name="issue5" sheetId="2" r:id="rId3"/>
+    <sheet name="issue6" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>a</t>
   </si>
@@ -25,6 +26,9 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -60,9 +64,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,6 +362,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="str">
+        <f>CONCATENATE("a","b")</f>
+        <v>ab</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="b">
+        <f>A1&gt;A2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2">
+        <v>42663</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -394,12 +449,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -415,15 +470,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
@@ -447,6 +505,9 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/issues.xlsx
+++ b/tests/issues.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11820"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11820" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="datatypes" sheetId="4" r:id="rId1"/>
     <sheet name="issue2" sheetId="1" r:id="rId2"/>
     <sheet name="issue5" sheetId="2" r:id="rId3"/>
     <sheet name="issue6" sheetId="3" r:id="rId4"/>
+    <sheet name="spc_chrs" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>a</t>
   </si>
@@ -29,19 +30,53 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>aaa ' aaa</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>☺</t>
+  </si>
+  <si>
+    <t>֍</t>
+  </si>
+  <si>
+    <t>àâéêèçöïî«»</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="U2400"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="U0400"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,10 +99,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,13 +401,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -480,7 +517,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -511,4 +548,60 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="18">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="18">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/issues.xlsx
+++ b/tests/issues.xlsx
@@ -1,19 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtuffe010814\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11820" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="datatypes" sheetId="4" r:id="rId1"/>
-    <sheet name="issue2" sheetId="1" r:id="rId2"/>
-    <sheet name="issue5" sheetId="2" r:id="rId3"/>
-    <sheet name="issue6" sheetId="3" r:id="rId4"/>
-    <sheet name="spc_chrs" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="issue2" sheetId="1" r:id="rId3"/>
+    <sheet name="issue5" sheetId="2" r:id="rId4"/>
+    <sheet name="issue6" sheetId="3" r:id="rId5"/>
+    <sheet name="spc_chrs" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames>
+    <definedName name="MyBrokenRange">Sheet1!#REF!</definedName>
+    <definedName name="MyDataTypes">datatypes!$A$1:$A$6</definedName>
+  </definedNames>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -59,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -111,6 +121,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -157,7 +175,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,9 +207,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,6 +259,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -398,16 +452,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -448,7 +502,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -486,8 +554,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -507,8 +575,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -517,7 +585,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -550,15 +618,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/tests/issues.xlsx
+++ b/tests/issues.xlsx
@@ -22,6 +22,7 @@
   <definedNames>
     <definedName name="MyBrokenRange">Sheet1!#REF!</definedName>
     <definedName name="MyDataTypes">datatypes!$A$1:$A$6</definedName>
+    <definedName name="OneRange">Sheet1!$A$1</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
@@ -505,9 +506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>

--- a/tests/issues.xlsx
+++ b/tests/issues.xlsx
@@ -1,19 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtuffe010814\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11820" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="datatypes" sheetId="4" r:id="rId1"/>
-    <sheet name="issue2" sheetId="1" r:id="rId2"/>
-    <sheet name="issue5" sheetId="2" r:id="rId3"/>
-    <sheet name="issue6" sheetId="3" r:id="rId4"/>
-    <sheet name="spc_chrs" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="issue2" sheetId="1" r:id="rId3"/>
+    <sheet name="issue5" sheetId="2" r:id="rId4"/>
+    <sheet name="issue6" sheetId="3" r:id="rId5"/>
+    <sheet name="spc_chrs" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames>
+    <definedName name="MyBrokenRange">Sheet1!#REF!</definedName>
+    <definedName name="MyDataTypes">datatypes!$A$1:$A$6</definedName>
+    <definedName name="OneRange">Sheet1!$A$1</definedName>
+  </definedNames>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -59,7 +70,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -111,6 +122,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -157,7 +176,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,9 +208,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,6 +260,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -398,16 +453,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -448,7 +503,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -486,8 +553,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -507,8 +574,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -517,7 +584,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -550,15 +617,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
